--- a/pandapower/test/shortcircuit/sce_tests/sc_result_comparison/wp_2.5/2_five_bus_radial_grid_ynyn_gen_pf_sc_results_0_bus_resonant.xlsx
+++ b/pandapower/test/shortcircuit/sce_tests/sc_result_comparison/wp_2.5/2_five_bus_radial_grid_ynyn_gen_pf_sc_results_0_bus_resonant.xlsx
@@ -719,10 +719,10 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>4.54545480310641</v>
+        <v>4.545454803106411</v>
       </c>
       <c r="D2">
-        <v>4.54545480310641</v>
+        <v>4.545454803106411</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -734,25 +734,25 @@
         <v>288.675150957904</v>
       </c>
       <c r="H2">
-        <v>1.302220645038725</v>
+        <v>1.300057681313775</v>
       </c>
       <c r="I2">
-        <v>13.13357405514342</v>
+        <v>13.12286890427497</v>
       </c>
       <c r="J2">
-        <v>1.324394474185779</v>
+        <v>1.324394474185756</v>
       </c>
       <c r="K2">
-        <v>13.24394453578181</v>
+        <v>13.24394453578177</v>
       </c>
       <c r="L2">
-        <v>1.324394474104229</v>
+        <v>1.32439447410423</v>
       </c>
       <c r="M2">
         <v>13.24394453563989</v>
       </c>
       <c r="N2">
-        <v>0.9526279647803686</v>
+        <v>0.9526279647803685</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -761,7 +761,7 @@
         <v>0.9526279647833883</v>
       </c>
       <c r="Q2">
-        <v>-8.692298255403023E-11</v>
+        <v>-8.693547290884792E-11</v>
       </c>
       <c r="R2">
         <v>0</v>
@@ -811,16 +811,16 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.952627964667196</v>
+        <v>0.9526279646671957</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.9526279648965607</v>
+        <v>0.9526279648965608</v>
       </c>
       <c r="Q3">
-        <v>1.45830137539804E-10</v>
+        <v>1.457736343491934E-10</v>
       </c>
       <c r="R3">
         <v>0</v>
@@ -870,16 +870,16 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.9526279646404249</v>
+        <v>0.9526279646404242</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.9526279649233319</v>
+        <v>0.952627964923332</v>
       </c>
       <c r="Q4">
-        <v>1.564957417103715E-09</v>
+        <v>1.564904727956292E-09</v>
       </c>
       <c r="R4">
         <v>0</v>
@@ -929,22 +929,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.952627964631501</v>
+        <v>0.9526279646315007</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.9526279649322557</v>
+        <v>0.9526279649322559</v>
       </c>
       <c r="Q5">
-        <v>2.037993580520877E-09</v>
+        <v>2.037945568028168E-09</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>179.9999999979534</v>
+        <v>179.9999999979535</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -988,22 +988,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9526279646315009</v>
+        <v>0.9526279646315007</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.9526279649322557</v>
+        <v>0.9526279649322559</v>
       </c>
       <c r="Q6">
-        <v>2.037985802051262E-09</v>
+        <v>2.037938665368102E-09</v>
       </c>
       <c r="R6">
         <v>0</v>
       </c>
       <c r="S6">
-        <v>179.9999999979534</v>
+        <v>179.9999999979535</v>
       </c>
     </row>
   </sheetData>
@@ -1086,34 +1086,34 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>3.734156921377197</v>
+        <v>3.734156921377196</v>
       </c>
       <c r="D2">
-        <v>3.734156921377197</v>
+        <v>3.734156921377196</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>237.1508154128772</v>
+        <v>237.1508154128771</v>
       </c>
       <c r="G2">
-        <v>237.1508154128772</v>
+        <v>237.1508154128771</v>
       </c>
       <c r="H2">
-        <v>1.302220645038725</v>
+        <v>1.300057681313775</v>
       </c>
       <c r="I2">
-        <v>13.13357405514342</v>
+        <v>13.12286890427497</v>
       </c>
       <c r="J2">
-        <v>1.324394474185779</v>
+        <v>1.324394474185756</v>
       </c>
       <c r="K2">
-        <v>13.24394453578181</v>
+        <v>13.24394453578177</v>
       </c>
       <c r="L2">
-        <v>1.324394474104229</v>
+        <v>1.32439447410423</v>
       </c>
       <c r="M2">
         <v>13.24394453563989</v>
@@ -1128,7 +1128,7 @@
         <v>0.8960735769153692</v>
       </c>
       <c r="Q2">
-        <v>5.766209884997127</v>
+        <v>5.766209884997131</v>
       </c>
       <c r="R2">
         <v>-121.3466079962484</v>
@@ -1181,16 +1181,16 @@
         <v>1.02022644131502</v>
       </c>
       <c r="O3">
-        <v>0.2400406981630196</v>
+        <v>0.2400406981630188</v>
       </c>
       <c r="P3">
-        <v>0.896073577006172</v>
+        <v>0.8960735770061722</v>
       </c>
       <c r="Q3">
-        <v>5.766209884977235</v>
+        <v>5.766209884977211</v>
       </c>
       <c r="R3">
-        <v>-121.3466079609365</v>
+        <v>-121.3466079609364</v>
       </c>
       <c r="S3">
         <v>173.4315681785684</v>
@@ -1240,13 +1240,13 @@
         <v>1.020226441292307</v>
       </c>
       <c r="O4">
-        <v>0.2400406981651702</v>
+        <v>0.2400406981651693</v>
       </c>
       <c r="P4">
-        <v>0.8960735770323203</v>
+        <v>0.8960735770323205</v>
       </c>
       <c r="Q4">
-        <v>5.766209886018122</v>
+        <v>5.7662098860181</v>
       </c>
       <c r="R4">
         <v>-121.346607946951</v>
@@ -1299,13 +1299,13 @@
         <v>1.020226441284736</v>
       </c>
       <c r="O5">
-        <v>0.2400406981658871</v>
+        <v>0.2400406981658861</v>
       </c>
       <c r="P5">
-        <v>0.8960735770410365</v>
+        <v>0.8960735770410369</v>
       </c>
       <c r="Q5">
-        <v>5.766209886365083</v>
+        <v>5.76620988636506</v>
       </c>
       <c r="R5">
         <v>-121.3466079422892</v>
@@ -1358,16 +1358,16 @@
         <v>1.020226441284736</v>
       </c>
       <c r="O6">
-        <v>0.2400406981658871</v>
+        <v>0.2400406981658859</v>
       </c>
       <c r="P6">
-        <v>0.8960735770410363</v>
+        <v>0.8960735770410369</v>
       </c>
       <c r="Q6">
-        <v>5.766209886365078</v>
+        <v>5.766209886365053</v>
       </c>
       <c r="R6">
-        <v>-121.3466079422893</v>
+        <v>-121.3466079422892</v>
       </c>
       <c r="S6">
         <v>173.4315681774384</v>
@@ -1453,34 +1453,34 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>3.734156921377197</v>
+        <v>3.734156921377196</v>
       </c>
       <c r="D2">
-        <v>3.734156921377197</v>
+        <v>3.734156921377196</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>237.1508154128772</v>
+        <v>237.1508154128771</v>
       </c>
       <c r="G2">
-        <v>237.1508154128772</v>
+        <v>237.1508154128771</v>
       </c>
       <c r="H2">
-        <v>1.302220645038725</v>
+        <v>1.300057681313775</v>
       </c>
       <c r="I2">
-        <v>13.13357405514342</v>
+        <v>13.12286890427497</v>
       </c>
       <c r="J2">
-        <v>1.324394474185779</v>
+        <v>1.324394474185756</v>
       </c>
       <c r="K2">
-        <v>13.24394453578181</v>
+        <v>13.24394453578177</v>
       </c>
       <c r="L2">
-        <v>1.324394474104229</v>
+        <v>1.32439447410423</v>
       </c>
       <c r="M2">
         <v>13.24394453563989</v>
@@ -1495,7 +1495,7 @@
         <v>0.8960735769153692</v>
       </c>
       <c r="Q2">
-        <v>5.766209884997127</v>
+        <v>5.766209884997131</v>
       </c>
       <c r="R2">
         <v>-121.3466079962484</v>
@@ -1548,16 +1548,16 @@
         <v>1.02022644131502</v>
       </c>
       <c r="O3">
-        <v>0.2400406981630196</v>
+        <v>0.2400406981630188</v>
       </c>
       <c r="P3">
-        <v>0.896073577006172</v>
+        <v>0.8960735770061722</v>
       </c>
       <c r="Q3">
-        <v>5.766209884977235</v>
+        <v>5.766209884977211</v>
       </c>
       <c r="R3">
-        <v>-121.3466079609365</v>
+        <v>-121.3466079609364</v>
       </c>
       <c r="S3">
         <v>173.4315681785684</v>
@@ -1607,13 +1607,13 @@
         <v>1.020226441292307</v>
       </c>
       <c r="O4">
-        <v>0.2400406981651702</v>
+        <v>0.2400406981651693</v>
       </c>
       <c r="P4">
-        <v>0.8960735770323203</v>
+        <v>0.8960735770323205</v>
       </c>
       <c r="Q4">
-        <v>5.766209886018122</v>
+        <v>5.7662098860181</v>
       </c>
       <c r="R4">
         <v>-121.346607946951</v>
@@ -1666,13 +1666,13 @@
         <v>1.020226441284736</v>
       </c>
       <c r="O5">
-        <v>0.2400406981658871</v>
+        <v>0.2400406981658861</v>
       </c>
       <c r="P5">
-        <v>0.8960735770410365</v>
+        <v>0.8960735770410369</v>
       </c>
       <c r="Q5">
-        <v>5.766209886365083</v>
+        <v>5.76620988636506</v>
       </c>
       <c r="R5">
         <v>-121.3466079422892</v>
@@ -1725,16 +1725,16 @@
         <v>1.020226441284736</v>
       </c>
       <c r="O6">
-        <v>0.2400406981658871</v>
+        <v>0.2400406981658859</v>
       </c>
       <c r="P6">
-        <v>0.8960735770410363</v>
+        <v>0.8960735770410369</v>
       </c>
       <c r="Q6">
-        <v>5.766209886365078</v>
+        <v>5.766209886365053</v>
       </c>
       <c r="R6">
-        <v>-121.3466079422893</v>
+        <v>-121.3466079422892</v>
       </c>
       <c r="S6">
         <v>173.4315681774384</v>
@@ -1835,25 +1835,25 @@
         <v>230.9401157662428</v>
       </c>
       <c r="H2">
-        <v>1.47644525002513</v>
+        <v>1.473640706216196</v>
       </c>
       <c r="I2">
-        <v>14.90759653787144</v>
+        <v>14.89381626354166</v>
       </c>
       <c r="J2">
-        <v>1.50499372124625</v>
+        <v>1.504993721246254</v>
       </c>
       <c r="K2">
-        <v>15.0499369732484</v>
+        <v>15.04993697324841</v>
       </c>
       <c r="L2">
         <v>1.504993720695295</v>
       </c>
       <c r="M2">
-        <v>15.04993697229335</v>
+        <v>15.04993697229334</v>
       </c>
       <c r="N2">
-        <v>0.8660254037845059</v>
+        <v>0.8660254037845058</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -1862,7 +1862,7 @@
         <v>0.8660254037849897</v>
       </c>
       <c r="Q2">
-        <v>1.720059762656034E-10</v>
+        <v>1.720078781821194E-10</v>
       </c>
       <c r="R2">
         <v>0</v>
@@ -1912,16 +1912,16 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.8660254036789681</v>
+        <v>0.8660254036789676</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.8660254038905275</v>
+        <v>0.8660254038905274</v>
       </c>
       <c r="Q3">
-        <v>4.107188216381889E-10</v>
+        <v>4.107402585728068E-10</v>
       </c>
       <c r="R3">
         <v>0</v>
@@ -1971,22 +1971,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.8660254036546309</v>
+        <v>0.8660254036546304</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.866025403914865</v>
+        <v>0.8660254039148648</v>
       </c>
       <c r="Q4">
-        <v>3.135414324720115E-09</v>
+        <v>3.135448690541681E-09</v>
       </c>
       <c r="R4">
         <v>0</v>
       </c>
       <c r="S4">
-        <v>179.9999999968559</v>
+        <v>179.999999996856</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -2030,16 +2030,16 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.8660254036465185</v>
+        <v>0.8660254036465179</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.8660254039229774</v>
+        <v>0.8660254039229772</v>
       </c>
       <c r="Q5">
-        <v>4.04364836669237E-09</v>
+        <v>4.043680599396518E-09</v>
       </c>
       <c r="R5">
         <v>0</v>
@@ -2089,16 +2089,16 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.8660254036465185</v>
+        <v>0.8660254036465179</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.8660254039229776</v>
+        <v>0.8660254039229772</v>
       </c>
       <c r="Q6">
-        <v>4.043649207456852E-09</v>
+        <v>4.043681344178247E-09</v>
       </c>
       <c r="R6">
         <v>0</v>
@@ -2202,25 +2202,25 @@
         <v>230.9401157662428</v>
       </c>
       <c r="H2">
-        <v>1.47644525002513</v>
+        <v>1.473640706216196</v>
       </c>
       <c r="I2">
-        <v>14.90759653787144</v>
+        <v>14.89381626354166</v>
       </c>
       <c r="J2">
-        <v>1.50499372124625</v>
+        <v>1.504993721246254</v>
       </c>
       <c r="K2">
-        <v>15.0499369732484</v>
+        <v>15.04993697324841</v>
       </c>
       <c r="L2">
         <v>1.504993720695295</v>
       </c>
       <c r="M2">
-        <v>15.04993697229335</v>
+        <v>15.04993697229334</v>
       </c>
       <c r="N2">
-        <v>0.8660254037845059</v>
+        <v>0.8660254037845058</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -2229,7 +2229,7 @@
         <v>0.8660254037849897</v>
       </c>
       <c r="Q2">
-        <v>1.720059762656034E-10</v>
+        <v>1.720078781821194E-10</v>
       </c>
       <c r="R2">
         <v>0</v>
@@ -2279,16 +2279,16 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.8660254036789681</v>
+        <v>0.8660254036789676</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.8660254038905275</v>
+        <v>0.8660254038905274</v>
       </c>
       <c r="Q3">
-        <v>4.107188216381889E-10</v>
+        <v>4.107402585728068E-10</v>
       </c>
       <c r="R3">
         <v>0</v>
@@ -2338,22 +2338,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.8660254036546309</v>
+        <v>0.8660254036546304</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.866025403914865</v>
+        <v>0.8660254039148648</v>
       </c>
       <c r="Q4">
-        <v>3.135414324720115E-09</v>
+        <v>3.135448690541681E-09</v>
       </c>
       <c r="R4">
         <v>0</v>
       </c>
       <c r="S4">
-        <v>179.9999999968559</v>
+        <v>179.999999996856</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -2397,16 +2397,16 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.8660254036465185</v>
+        <v>0.8660254036465179</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.8660254039229774</v>
+        <v>0.8660254039229772</v>
       </c>
       <c r="Q5">
-        <v>4.04364836669237E-09</v>
+        <v>4.043680599396518E-09</v>
       </c>
       <c r="R5">
         <v>0</v>
@@ -2456,16 +2456,16 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.8660254036465185</v>
+        <v>0.8660254036465179</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.8660254039229776</v>
+        <v>0.8660254039229772</v>
       </c>
       <c r="Q6">
-        <v>4.043649207456852E-09</v>
+        <v>4.043681344178247E-09</v>
       </c>
       <c r="R6">
         <v>0</v>
@@ -2569,34 +2569,34 @@
         <v>194.0417843782413</v>
       </c>
       <c r="H2">
-        <v>1.47644525002513</v>
+        <v>1.473640706216196</v>
       </c>
       <c r="I2">
-        <v>14.90759653787144</v>
+        <v>14.89381626354166</v>
       </c>
       <c r="J2">
-        <v>1.50499372124625</v>
+        <v>1.504993721246254</v>
       </c>
       <c r="K2">
-        <v>15.0499369732484</v>
+        <v>15.04993697324841</v>
       </c>
       <c r="L2">
         <v>1.504993720695295</v>
       </c>
       <c r="M2">
-        <v>15.04993697229335</v>
+        <v>15.04993697229334</v>
       </c>
       <c r="N2">
-        <v>0.9220324944339027</v>
+        <v>0.9220324944339024</v>
       </c>
       <c r="O2">
-        <v>0.1964063473242865</v>
+        <v>0.1964063473242862</v>
       </c>
       <c r="P2">
         <v>0.8180121061818275</v>
       </c>
       <c r="Q2">
-        <v>5.173976904115778</v>
+        <v>5.173976904115777</v>
       </c>
       <c r="R2">
         <v>-122.1449202961592</v>
@@ -2646,19 +2646,19 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.9220324943451755</v>
+        <v>0.9220324943451749</v>
       </c>
       <c r="O3">
-        <v>0.1964063472166736</v>
+        <v>0.1964063472166732</v>
       </c>
       <c r="P3">
         <v>0.8180121062689185</v>
       </c>
       <c r="Q3">
-        <v>5.173976904114582</v>
+        <v>5.173976904114592</v>
       </c>
       <c r="R3">
-        <v>-122.1449202549971</v>
+        <v>-122.144920254997</v>
       </c>
       <c r="S3">
         <v>174.1659345864976</v>
@@ -2705,22 +2705,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.9220324943235488</v>
+        <v>0.9220324943235483</v>
       </c>
       <c r="O4">
-        <v>0.1964063472443389</v>
+        <v>0.196406347244339</v>
       </c>
       <c r="P4">
-        <v>0.8180121062966166</v>
+        <v>0.8180121062966164</v>
       </c>
       <c r="Q4">
-        <v>5.173976906219907</v>
+        <v>5.173976906219939</v>
       </c>
       <c r="R4">
-        <v>-122.1449202329786</v>
+        <v>-122.1449202329785</v>
       </c>
       <c r="S4">
-        <v>174.1659345844574</v>
+        <v>174.1659345844575</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -2764,19 +2764,19 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.9220324943163397</v>
+        <v>0.9220324943163395</v>
       </c>
       <c r="O5">
         <v>0.1964063472535607</v>
       </c>
       <c r="P5">
-        <v>0.8180121063058493</v>
+        <v>0.8180121063058492</v>
       </c>
       <c r="Q5">
-        <v>5.173976906921683</v>
+        <v>5.173976906921713</v>
       </c>
       <c r="R5">
-        <v>-122.1449202256392</v>
+        <v>-122.144920225639</v>
       </c>
       <c r="S5">
         <v>174.1659345837774</v>
@@ -2823,19 +2823,19 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9220324943163399</v>
+        <v>0.9220324943163394</v>
       </c>
       <c r="O6">
         <v>0.1964063472535608</v>
       </c>
       <c r="P6">
-        <v>0.8180121063058493</v>
+        <v>0.8180121063058492</v>
       </c>
       <c r="Q6">
-        <v>5.173976906921687</v>
+        <v>5.173976906921717</v>
       </c>
       <c r="R6">
-        <v>-122.1449202256392</v>
+        <v>-122.144920225639</v>
       </c>
       <c r="S6">
         <v>174.1659345837774</v>
@@ -2936,34 +2936,34 @@
         <v>194.0417843782413</v>
       </c>
       <c r="H2">
-        <v>1.47644525002513</v>
+        <v>1.473640706216196</v>
       </c>
       <c r="I2">
-        <v>14.90759653787144</v>
+        <v>14.89381626354166</v>
       </c>
       <c r="J2">
-        <v>1.50499372124625</v>
+        <v>1.504993721246254</v>
       </c>
       <c r="K2">
-        <v>15.0499369732484</v>
+        <v>15.04993697324841</v>
       </c>
       <c r="L2">
         <v>1.504993720695295</v>
       </c>
       <c r="M2">
-        <v>15.04993697229335</v>
+        <v>15.04993697229334</v>
       </c>
       <c r="N2">
-        <v>0.9220324944339027</v>
+        <v>0.9220324944339024</v>
       </c>
       <c r="O2">
-        <v>0.1964063473242865</v>
+        <v>0.1964063473242862</v>
       </c>
       <c r="P2">
         <v>0.8180121061818275</v>
       </c>
       <c r="Q2">
-        <v>5.173976904115778</v>
+        <v>5.173976904115777</v>
       </c>
       <c r="R2">
         <v>-122.1449202961592</v>
@@ -3013,19 +3013,19 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.9220324943451755</v>
+        <v>0.9220324943451749</v>
       </c>
       <c r="O3">
-        <v>0.1964063472166736</v>
+        <v>0.1964063472166732</v>
       </c>
       <c r="P3">
         <v>0.8180121062689185</v>
       </c>
       <c r="Q3">
-        <v>5.173976904114582</v>
+        <v>5.173976904114592</v>
       </c>
       <c r="R3">
-        <v>-122.1449202549971</v>
+        <v>-122.144920254997</v>
       </c>
       <c r="S3">
         <v>174.1659345864976</v>
@@ -3072,22 +3072,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.9220324943235488</v>
+        <v>0.9220324943235483</v>
       </c>
       <c r="O4">
-        <v>0.1964063472443389</v>
+        <v>0.196406347244339</v>
       </c>
       <c r="P4">
-        <v>0.8180121062966166</v>
+        <v>0.8180121062966164</v>
       </c>
       <c r="Q4">
-        <v>5.173976906219907</v>
+        <v>5.173976906219939</v>
       </c>
       <c r="R4">
-        <v>-122.1449202329786</v>
+        <v>-122.1449202329785</v>
       </c>
       <c r="S4">
-        <v>174.1659345844574</v>
+        <v>174.1659345844575</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -3131,19 +3131,19 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.9220324943163397</v>
+        <v>0.9220324943163395</v>
       </c>
       <c r="O5">
         <v>0.1964063472535607</v>
       </c>
       <c r="P5">
-        <v>0.8180121063058493</v>
+        <v>0.8180121063058492</v>
       </c>
       <c r="Q5">
-        <v>5.173976906921683</v>
+        <v>5.173976906921713</v>
       </c>
       <c r="R5">
-        <v>-122.1449202256392</v>
+        <v>-122.144920225639</v>
       </c>
       <c r="S5">
         <v>174.1659345837774</v>
@@ -3190,19 +3190,19 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9220324943163399</v>
+        <v>0.9220324943163394</v>
       </c>
       <c r="O6">
         <v>0.1964063472535608</v>
       </c>
       <c r="P6">
-        <v>0.8180121063058493</v>
+        <v>0.8180121063058492</v>
       </c>
       <c r="Q6">
-        <v>5.173976906921687</v>
+        <v>5.173976906921717</v>
       </c>
       <c r="R6">
-        <v>-122.1449202256392</v>
+        <v>-122.144920225639</v>
       </c>
       <c r="S6">
         <v>174.1659345837774</v>
@@ -3288,7 +3288,7 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>5.263406116091555</v>
+        <v>5.26484297160279</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -3297,7 +3297,7 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>334.271183177776</v>
+        <v>334.3624357585579</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -3306,13 +3306,13 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>1.30222064503878</v>
+        <v>1.300057681313834</v>
       </c>
       <c r="I2">
-        <v>13.13357405514231</v>
+        <v>13.12286890427386</v>
       </c>
       <c r="J2">
-        <v>1.324394473163983</v>
+        <v>1.324394473164031</v>
       </c>
       <c r="K2">
         <v>13.24394453564036</v>
@@ -3324,25 +3324,25 @@
         <v>13.24394453563962</v>
       </c>
       <c r="N2">
-        <v>0.634347526032725</v>
+        <v>0.634276179221576</v>
       </c>
       <c r="O2">
-        <v>1.100000023884802</v>
+        <v>1.100000023884798</v>
       </c>
       <c r="P2">
-        <v>0.6340400984523159</v>
+        <v>0.633938364482284</v>
       </c>
       <c r="Q2">
-        <v>60.14776954401349</v>
+        <v>60.16217698306592</v>
       </c>
       <c r="R2">
         <v>-89.99999999999633</v>
       </c>
       <c r="S2">
-        <v>119.8681757387985</v>
+        <v>119.855337127207</v>
       </c>
       <c r="T2">
-        <v>5.263406116091554</v>
+        <v>5.26484297160279</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -3386,22 +3386,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.6343475261489028</v>
+        <v>0.6342761793378138</v>
       </c>
       <c r="O3">
-        <v>1.100000023885115</v>
+        <v>1.100000023885142</v>
       </c>
       <c r="P3">
-        <v>0.6340400983411956</v>
+        <v>0.6339383643711619</v>
       </c>
       <c r="Q3">
-        <v>60.14776954953733</v>
+        <v>60.16217698858754</v>
       </c>
       <c r="R3">
-        <v>-89.99999999999632</v>
+        <v>-89.99999999999554</v>
       </c>
       <c r="S3">
-        <v>119.8681757450641</v>
+        <v>119.8553371334748</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -3448,22 +3448,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.6343475261893868</v>
+        <v>0.6342761793783068</v>
       </c>
       <c r="O4">
-        <v>1.100000023885115</v>
+        <v>1.100000023885143</v>
       </c>
       <c r="P4">
-        <v>0.6340400983279307</v>
+        <v>0.6339383643578856</v>
       </c>
       <c r="Q4">
-        <v>60.14776954878971</v>
+        <v>60.16217698783865</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999632</v>
+        <v>-89.99999999999554</v>
       </c>
       <c r="S4">
-        <v>119.8681757486006</v>
+        <v>119.8553371370125</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -3510,22 +3510,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.6343475262028816</v>
+        <v>0.6342761793918043</v>
       </c>
       <c r="O5">
-        <v>1.100000023885115</v>
+        <v>1.100000023885143</v>
       </c>
       <c r="P5">
-        <v>0.6340400983235089</v>
+        <v>0.6339383643534602</v>
       </c>
       <c r="Q5">
-        <v>60.1477695485405</v>
+        <v>60.16217698758901</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999632</v>
+        <v>-89.99999999999554</v>
       </c>
       <c r="S5">
-        <v>119.8681757497794</v>
+        <v>119.8553371381917</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -3572,22 +3572,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.6343475262028816</v>
+        <v>0.6342761793918043</v>
       </c>
       <c r="O6">
-        <v>1.100000023885115</v>
+        <v>1.100000023885143</v>
       </c>
       <c r="P6">
-        <v>0.6340400983235089</v>
+        <v>0.6339383643534602</v>
       </c>
       <c r="Q6">
-        <v>60.14776954854052</v>
+        <v>60.16217698758901</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999631</v>
+        <v>-89.99999999999554</v>
       </c>
       <c r="S6">
-        <v>119.8681757497794</v>
+        <v>119.8553371381917</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -3673,7 +3673,7 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>5.263406116091555</v>
+        <v>5.26484297160279</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -3682,7 +3682,7 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>334.271183177776</v>
+        <v>334.3624357585579</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -3691,13 +3691,13 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>1.30222064503878</v>
+        <v>1.300057681313834</v>
       </c>
       <c r="I2">
-        <v>13.13357405514231</v>
+        <v>13.12286890427386</v>
       </c>
       <c r="J2">
-        <v>1.324394473163983</v>
+        <v>1.324394473164031</v>
       </c>
       <c r="K2">
         <v>13.24394453564036</v>
@@ -3709,25 +3709,25 @@
         <v>13.24394453563962</v>
       </c>
       <c r="N2">
-        <v>0.634347526032725</v>
+        <v>0.634276179221576</v>
       </c>
       <c r="O2">
-        <v>1.100000023884802</v>
+        <v>1.100000023884798</v>
       </c>
       <c r="P2">
-        <v>0.6340400984523159</v>
+        <v>0.633938364482284</v>
       </c>
       <c r="Q2">
-        <v>60.14776954401349</v>
+        <v>60.16217698306592</v>
       </c>
       <c r="R2">
         <v>-89.99999999999633</v>
       </c>
       <c r="S2">
-        <v>119.8681757387985</v>
+        <v>119.855337127207</v>
       </c>
       <c r="T2">
-        <v>5.263406116091554</v>
+        <v>5.26484297160279</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -3771,22 +3771,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.6343475261489028</v>
+        <v>0.6342761793378138</v>
       </c>
       <c r="O3">
-        <v>1.100000023885115</v>
+        <v>1.100000023885142</v>
       </c>
       <c r="P3">
-        <v>0.6340400983411956</v>
+        <v>0.6339383643711619</v>
       </c>
       <c r="Q3">
-        <v>60.14776954953733</v>
+        <v>60.16217698858754</v>
       </c>
       <c r="R3">
-        <v>-89.99999999999632</v>
+        <v>-89.99999999999554</v>
       </c>
       <c r="S3">
-        <v>119.8681757450641</v>
+        <v>119.8553371334748</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -3833,22 +3833,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.6343475261893868</v>
+        <v>0.6342761793783068</v>
       </c>
       <c r="O4">
-        <v>1.100000023885115</v>
+        <v>1.100000023885143</v>
       </c>
       <c r="P4">
-        <v>0.6340400983279307</v>
+        <v>0.6339383643578856</v>
       </c>
       <c r="Q4">
-        <v>60.14776954878971</v>
+        <v>60.16217698783865</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999632</v>
+        <v>-89.99999999999554</v>
       </c>
       <c r="S4">
-        <v>119.8681757486006</v>
+        <v>119.8553371370125</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -3895,22 +3895,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.6343475262028816</v>
+        <v>0.6342761793918043</v>
       </c>
       <c r="O5">
-        <v>1.100000023885115</v>
+        <v>1.100000023885143</v>
       </c>
       <c r="P5">
-        <v>0.6340400983235089</v>
+        <v>0.6339383643534602</v>
       </c>
       <c r="Q5">
-        <v>60.1477695485405</v>
+        <v>60.16217698758901</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999632</v>
+        <v>-89.99999999999554</v>
       </c>
       <c r="S5">
-        <v>119.8681757497794</v>
+        <v>119.8553371381917</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -3957,22 +3957,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.6343475262028816</v>
+        <v>0.6342761793918043</v>
       </c>
       <c r="O6">
-        <v>1.100000023885115</v>
+        <v>1.100000023885143</v>
       </c>
       <c r="P6">
-        <v>0.6340400983235089</v>
+        <v>0.6339383643534602</v>
       </c>
       <c r="Q6">
-        <v>60.14776954854052</v>
+        <v>60.16217698758901</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999631</v>
+        <v>-89.99999999999554</v>
       </c>
       <c r="S6">
-        <v>119.8681757497794</v>
+        <v>119.8553371381917</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -4058,7 +4058,7 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>3.624940474846059</v>
+        <v>3.625619165949931</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -4067,7 +4067,7 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>230.2146394843617</v>
+        <v>230.2577421584285</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -4076,13 +4076,13 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>1.30222064503878</v>
+        <v>1.300057681313834</v>
       </c>
       <c r="I2">
-        <v>13.13357405514231</v>
+        <v>13.12286890427386</v>
       </c>
       <c r="J2">
-        <v>1.324394473163983</v>
+        <v>1.324394473164031</v>
       </c>
       <c r="K2">
         <v>13.24394453564036</v>
@@ -4094,25 +4094,25 @@
         <v>13.24394453563962</v>
       </c>
       <c r="N2">
-        <v>0.6910350761596569</v>
+        <v>0.6909568608841099</v>
       </c>
       <c r="O2">
-        <v>1.100000023874117</v>
+        <v>1.100000023874113</v>
       </c>
       <c r="P2">
-        <v>0.8375829381608164</v>
+        <v>0.8375576564035055</v>
       </c>
       <c r="Q2">
-        <v>40.43279153111713</v>
+        <v>40.43506234323402</v>
       </c>
       <c r="R2">
         <v>-89.99999999999652</v>
       </c>
       <c r="S2">
-        <v>128.9019448775643</v>
+        <v>128.8965461402956</v>
       </c>
       <c r="T2">
-        <v>3.624940474846059</v>
+        <v>3.625619165949931</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -4156,22 +4156,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.6910350762035994</v>
+        <v>0.6909568609280815</v>
       </c>
       <c r="O3">
-        <v>1.100000023874327</v>
+        <v>1.100000023874355</v>
       </c>
       <c r="P3">
-        <v>0.8375829380808633</v>
+        <v>0.8375576563235704</v>
       </c>
       <c r="Q3">
-        <v>40.43279153766487</v>
+        <v>40.43506234978308</v>
       </c>
       <c r="R3">
-        <v>-89.99999999999652</v>
+        <v>-89.99999999999595</v>
       </c>
       <c r="S3">
-        <v>128.9019448804158</v>
+        <v>128.8965461431476</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -4218,22 +4218,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.6910350762300593</v>
+        <v>0.6909568609545467</v>
       </c>
       <c r="O4">
-        <v>1.100000023874327</v>
+        <v>1.100000023874355</v>
       </c>
       <c r="P4">
-        <v>0.8375829380696842</v>
+        <v>0.837557656312386</v>
       </c>
       <c r="Q4">
-        <v>40.43279153853346</v>
+        <v>40.43506235065192</v>
       </c>
       <c r="R4">
-        <v>-89.9999999999965</v>
+        <v>-89.99999999999595</v>
       </c>
       <c r="S4">
-        <v>128.901944882206</v>
+        <v>128.8965461449382</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -4280,22 +4280,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.6910350762388795</v>
+        <v>0.6909568609633683</v>
       </c>
       <c r="O5">
-        <v>1.100000023874327</v>
+        <v>1.100000023874355</v>
       </c>
       <c r="P5">
-        <v>0.8375829380659576</v>
+        <v>0.8375576563086577</v>
       </c>
       <c r="Q5">
-        <v>40.432791538823</v>
+        <v>40.43506235094154</v>
       </c>
       <c r="R5">
-        <v>-89.9999999999965</v>
+        <v>-89.99999999999595</v>
       </c>
       <c r="S5">
-        <v>128.9019448828028</v>
+        <v>128.896546145535</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -4342,22 +4342,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.6910350762388794</v>
+        <v>0.6909568609633683</v>
       </c>
       <c r="O6">
-        <v>1.100000023874327</v>
+        <v>1.100000023874355</v>
       </c>
       <c r="P6">
-        <v>0.8375829380659576</v>
+        <v>0.8375576563086579</v>
       </c>
       <c r="Q6">
-        <v>40.432791538823</v>
+        <v>40.43506235094154</v>
       </c>
       <c r="R6">
-        <v>-89.9999999999965</v>
+        <v>-89.99999999999595</v>
       </c>
       <c r="S6">
-        <v>128.9019448828027</v>
+        <v>128.896546145535</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -4594,7 +4594,7 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>3.624940474846059</v>
+        <v>3.625619165949931</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -4603,7 +4603,7 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>230.2146394843617</v>
+        <v>230.2577421584285</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -4612,13 +4612,13 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>1.30222064503878</v>
+        <v>1.300057681313834</v>
       </c>
       <c r="I2">
-        <v>13.13357405514231</v>
+        <v>13.12286890427386</v>
       </c>
       <c r="J2">
-        <v>1.324394473163983</v>
+        <v>1.324394473164031</v>
       </c>
       <c r="K2">
         <v>13.24394453564036</v>
@@ -4630,25 +4630,25 @@
         <v>13.24394453563962</v>
       </c>
       <c r="N2">
-        <v>0.6910350761596569</v>
+        <v>0.6909568608841099</v>
       </c>
       <c r="O2">
-        <v>1.100000023874117</v>
+        <v>1.100000023874113</v>
       </c>
       <c r="P2">
-        <v>0.8375829381608164</v>
+        <v>0.8375576564035055</v>
       </c>
       <c r="Q2">
-        <v>40.43279153111713</v>
+        <v>40.43506234323402</v>
       </c>
       <c r="R2">
         <v>-89.99999999999652</v>
       </c>
       <c r="S2">
-        <v>128.9019448775643</v>
+        <v>128.8965461402956</v>
       </c>
       <c r="T2">
-        <v>3.624940474846059</v>
+        <v>3.625619165949931</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -4692,22 +4692,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.6910350762035994</v>
+        <v>0.6909568609280815</v>
       </c>
       <c r="O3">
-        <v>1.100000023874327</v>
+        <v>1.100000023874355</v>
       </c>
       <c r="P3">
-        <v>0.8375829380808633</v>
+        <v>0.8375576563235704</v>
       </c>
       <c r="Q3">
-        <v>40.43279153766487</v>
+        <v>40.43506234978308</v>
       </c>
       <c r="R3">
-        <v>-89.99999999999652</v>
+        <v>-89.99999999999595</v>
       </c>
       <c r="S3">
-        <v>128.9019448804158</v>
+        <v>128.8965461431476</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -4754,22 +4754,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.6910350762300593</v>
+        <v>0.6909568609545467</v>
       </c>
       <c r="O4">
-        <v>1.100000023874327</v>
+        <v>1.100000023874355</v>
       </c>
       <c r="P4">
-        <v>0.8375829380696842</v>
+        <v>0.837557656312386</v>
       </c>
       <c r="Q4">
-        <v>40.43279153853346</v>
+        <v>40.43506235065192</v>
       </c>
       <c r="R4">
-        <v>-89.9999999999965</v>
+        <v>-89.99999999999595</v>
       </c>
       <c r="S4">
-        <v>128.901944882206</v>
+        <v>128.8965461449382</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -4816,22 +4816,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.6910350762388795</v>
+        <v>0.6909568609633683</v>
       </c>
       <c r="O5">
-        <v>1.100000023874327</v>
+        <v>1.100000023874355</v>
       </c>
       <c r="P5">
-        <v>0.8375829380659576</v>
+        <v>0.8375576563086577</v>
       </c>
       <c r="Q5">
-        <v>40.432791538823</v>
+        <v>40.43506235094154</v>
       </c>
       <c r="R5">
-        <v>-89.9999999999965</v>
+        <v>-89.99999999999595</v>
       </c>
       <c r="S5">
-        <v>128.9019448828028</v>
+        <v>128.896546145535</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -4878,22 +4878,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.6910350762388794</v>
+        <v>0.6909568609633683</v>
       </c>
       <c r="O6">
-        <v>1.100000023874327</v>
+        <v>1.100000023874355</v>
       </c>
       <c r="P6">
-        <v>0.8375829380659576</v>
+        <v>0.8375576563086579</v>
       </c>
       <c r="Q6">
-        <v>40.432791538823</v>
+        <v>40.43506235094154</v>
       </c>
       <c r="R6">
-        <v>-89.9999999999965</v>
+        <v>-89.99999999999595</v>
       </c>
       <c r="S6">
-        <v>128.9019448828027</v>
+        <v>128.896546145535</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -4979,7 +4979,7 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>4.212323090189424</v>
+        <v>4.213626427838864</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -4988,7 +4988,7 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>267.5184457037994</v>
+        <v>267.6012187615019</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -4997,43 +4997,43 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>1.476445250025198</v>
+        <v>1.473640706216259</v>
       </c>
       <c r="I2">
-        <v>14.90759653787019</v>
+        <v>14.8938162635404</v>
       </c>
       <c r="J2">
-        <v>1.504993722648785</v>
+        <v>1.504993722648776</v>
       </c>
       <c r="K2">
-        <v>15.04993697229389</v>
+        <v>15.04993697229388</v>
       </c>
       <c r="L2">
-        <v>1.50499372069543</v>
+        <v>1.504993720695428</v>
       </c>
       <c r="M2">
-        <v>15.04993697229304</v>
+        <v>15.04993697229305</v>
       </c>
       <c r="N2">
-        <v>0.5765886435684565</v>
+        <v>0.5765153958898233</v>
       </c>
       <c r="O2">
-        <v>0.9999999999962973</v>
+        <v>0.9999999999962976</v>
       </c>
       <c r="P2">
-        <v>0.5762722271295359</v>
+        <v>0.5761671774923305</v>
       </c>
       <c r="Q2">
-        <v>60.16776106340315</v>
+        <v>60.18411549339274</v>
       </c>
       <c r="R2">
         <v>-89.99999999999635</v>
       </c>
       <c r="S2">
-        <v>119.850281196398</v>
+        <v>119.8357307982093</v>
       </c>
       <c r="T2">
-        <v>4.212323090189424</v>
+        <v>4.213626427838864</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -5077,22 +5077,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.576588643676607</v>
+        <v>0.5765153959980118</v>
       </c>
       <c r="O3">
-        <v>0.9999999999962974</v>
+        <v>0.9999999999962981</v>
       </c>
       <c r="P3">
-        <v>0.5762722270256023</v>
+        <v>0.5761671773883644</v>
       </c>
       <c r="Q3">
-        <v>60.16776106908284</v>
+        <v>60.18411549907151</v>
       </c>
       <c r="R3">
-        <v>-89.99999999999636</v>
+        <v>-89.99999999999555</v>
       </c>
       <c r="S3">
-        <v>119.8502812028116</v>
+        <v>119.8357308046239</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -5139,22 +5139,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.5765886437247867</v>
+        <v>0.5765153960461979</v>
       </c>
       <c r="O4">
-        <v>0.9999999999962974</v>
+        <v>0.9999999999962981</v>
       </c>
       <c r="P4">
-        <v>0.5762722270249135</v>
+        <v>0.576167177387663</v>
       </c>
       <c r="Q4">
-        <v>60.16776106636249</v>
+        <v>60.18411549634845</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999638</v>
+        <v>-89.99999999999557</v>
       </c>
       <c r="S4">
-        <v>119.8502812083207</v>
+        <v>119.8357308101357</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -5201,22 +5201,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.5765886437408466</v>
+        <v>0.5765153960622601</v>
       </c>
       <c r="O5">
-        <v>0.9999999999962974</v>
+        <v>0.9999999999962982</v>
       </c>
       <c r="P5">
-        <v>0.5762722270246839</v>
+        <v>0.5761671773874292</v>
       </c>
       <c r="Q5">
-        <v>60.16776106545571</v>
+        <v>60.18411549544079</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999636</v>
+        <v>-89.99999999999555</v>
       </c>
       <c r="S5">
-        <v>119.8502812101571</v>
+        <v>119.835730811973</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -5263,22 +5263,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.5765886437408466</v>
+        <v>0.5765153960622601</v>
       </c>
       <c r="O6">
-        <v>0.9999999999962974</v>
+        <v>0.9999999999962982</v>
       </c>
       <c r="P6">
-        <v>0.5762722270246838</v>
+        <v>0.5761671773874291</v>
       </c>
       <c r="Q6">
-        <v>60.16776106545571</v>
+        <v>60.18411549544078</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999638</v>
+        <v>-89.99999999999557</v>
       </c>
       <c r="S6">
-        <v>119.8502812101571</v>
+        <v>119.835730811973</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -5364,7 +5364,7 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>4.212323090189424</v>
+        <v>4.213626427838864</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -5373,7 +5373,7 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>267.5184457037994</v>
+        <v>267.6012187615019</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -5382,43 +5382,43 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>1.476445250025198</v>
+        <v>1.473640706216259</v>
       </c>
       <c r="I2">
-        <v>14.90759653787019</v>
+        <v>14.8938162635404</v>
       </c>
       <c r="J2">
-        <v>1.504993722648785</v>
+        <v>1.504993722648776</v>
       </c>
       <c r="K2">
-        <v>15.04993697229389</v>
+        <v>15.04993697229388</v>
       </c>
       <c r="L2">
-        <v>1.50499372069543</v>
+        <v>1.504993720695428</v>
       </c>
       <c r="M2">
-        <v>15.04993697229304</v>
+        <v>15.04993697229305</v>
       </c>
       <c r="N2">
-        <v>0.5765886435684565</v>
+        <v>0.5765153958898233</v>
       </c>
       <c r="O2">
-        <v>0.9999999999962973</v>
+        <v>0.9999999999962976</v>
       </c>
       <c r="P2">
-        <v>0.5762722271295359</v>
+        <v>0.5761671774923305</v>
       </c>
       <c r="Q2">
-        <v>60.16776106340315</v>
+        <v>60.18411549339274</v>
       </c>
       <c r="R2">
         <v>-89.99999999999635</v>
       </c>
       <c r="S2">
-        <v>119.850281196398</v>
+        <v>119.8357307982093</v>
       </c>
       <c r="T2">
-        <v>4.212323090189424</v>
+        <v>4.213626427838864</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -5462,22 +5462,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.576588643676607</v>
+        <v>0.5765153959980118</v>
       </c>
       <c r="O3">
-        <v>0.9999999999962974</v>
+        <v>0.9999999999962981</v>
       </c>
       <c r="P3">
-        <v>0.5762722270256023</v>
+        <v>0.5761671773883644</v>
       </c>
       <c r="Q3">
-        <v>60.16776106908284</v>
+        <v>60.18411549907151</v>
       </c>
       <c r="R3">
-        <v>-89.99999999999636</v>
+        <v>-89.99999999999555</v>
       </c>
       <c r="S3">
-        <v>119.8502812028116</v>
+        <v>119.8357308046239</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -5524,22 +5524,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.5765886437247867</v>
+        <v>0.5765153960461979</v>
       </c>
       <c r="O4">
-        <v>0.9999999999962974</v>
+        <v>0.9999999999962981</v>
       </c>
       <c r="P4">
-        <v>0.5762722270249135</v>
+        <v>0.576167177387663</v>
       </c>
       <c r="Q4">
-        <v>60.16776106636249</v>
+        <v>60.18411549634845</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999638</v>
+        <v>-89.99999999999557</v>
       </c>
       <c r="S4">
-        <v>119.8502812083207</v>
+        <v>119.8357308101357</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -5586,22 +5586,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.5765886437408466</v>
+        <v>0.5765153960622601</v>
       </c>
       <c r="O5">
-        <v>0.9999999999962974</v>
+        <v>0.9999999999962982</v>
       </c>
       <c r="P5">
-        <v>0.5762722270246839</v>
+        <v>0.5761671773874292</v>
       </c>
       <c r="Q5">
-        <v>60.16776106545571</v>
+        <v>60.18411549544079</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999636</v>
+        <v>-89.99999999999555</v>
       </c>
       <c r="S5">
-        <v>119.8502812101571</v>
+        <v>119.835730811973</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -5648,22 +5648,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.5765886437408466</v>
+        <v>0.5765153960622601</v>
       </c>
       <c r="O6">
-        <v>0.9999999999962974</v>
+        <v>0.9999999999962982</v>
       </c>
       <c r="P6">
-        <v>0.5762722270246838</v>
+        <v>0.5761671773874291</v>
       </c>
       <c r="Q6">
-        <v>60.16776106545571</v>
+        <v>60.18411549544078</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999638</v>
+        <v>-89.99999999999557</v>
       </c>
       <c r="S6">
-        <v>119.8502812101571</v>
+        <v>119.835730811973</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -5749,7 +5749,7 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>3.019799330972708</v>
+        <v>3.020468259906335</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -5758,7 +5758,7 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>191.7830152299319</v>
+        <v>191.8254979229207</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -5767,43 +5767,43 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>1.476445250025198</v>
+        <v>1.473640706216259</v>
       </c>
       <c r="I2">
-        <v>14.90759653787019</v>
+        <v>14.8938162635404</v>
       </c>
       <c r="J2">
-        <v>1.504993722648785</v>
+        <v>1.504993722648776</v>
       </c>
       <c r="K2">
-        <v>15.04993697229389</v>
+        <v>15.04993697229388</v>
       </c>
       <c r="L2">
-        <v>1.50499372069543</v>
+        <v>1.504993720695428</v>
       </c>
       <c r="M2">
-        <v>15.04993697229304</v>
+        <v>15.04993697229305</v>
       </c>
       <c r="N2">
-        <v>0.6175484936549258</v>
+        <v>0.6174633091097874</v>
       </c>
       <c r="O2">
-        <v>0.9999999999908358</v>
+        <v>0.9999999999908331</v>
       </c>
       <c r="P2">
-        <v>0.7469868768512281</v>
+        <v>0.746956328454727</v>
       </c>
       <c r="Q2">
-        <v>41.80899273589832</v>
+        <v>41.81235471693206</v>
       </c>
       <c r="R2">
         <v>-89.99999999999652</v>
       </c>
       <c r="S2">
-        <v>128.0401067669047</v>
+        <v>128.0334040010512</v>
       </c>
       <c r="T2">
-        <v>3.019799330972708</v>
+        <v>3.020468259906334</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -5847,22 +5847,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.6175484937007081</v>
+        <v>0.6174633091555791</v>
       </c>
       <c r="O3">
-        <v>0.9999999999908141</v>
+        <v>0.999999999990819</v>
       </c>
       <c r="P3">
-        <v>0.7469868767735771</v>
+        <v>0.7469563283770679</v>
       </c>
       <c r="Q3">
-        <v>41.80899274283695</v>
+        <v>41.8123547238728</v>
       </c>
       <c r="R3">
-        <v>-89.99999999999652</v>
+        <v>-89.99999999999594</v>
       </c>
       <c r="S3">
-        <v>128.0401067700327</v>
+        <v>128.0334040041792</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -5909,22 +5909,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.6175484937404275</v>
+        <v>0.6174633091953077</v>
       </c>
       <c r="O4">
-        <v>0.9999999999908141</v>
+        <v>0.999999999990819</v>
       </c>
       <c r="P4">
-        <v>0.7469868767702388</v>
+        <v>0.7469563283737234</v>
       </c>
       <c r="Q4">
-        <v>41.80899274290458</v>
+        <v>41.81235472394033</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999653</v>
+        <v>-89.99999999999594</v>
       </c>
       <c r="S4">
-        <v>128.040106773069</v>
+        <v>128.0334040072163</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -5971,22 +5971,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.6175484937536673</v>
+        <v>0.6174633092085503</v>
       </c>
       <c r="O5">
-        <v>0.9999999999908141</v>
+        <v>0.999999999990819</v>
       </c>
       <c r="P5">
-        <v>0.7469868767691259</v>
+        <v>0.7469563283726084</v>
       </c>
       <c r="Q5">
-        <v>41.80899274292714</v>
+        <v>41.81235472396286</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999653</v>
+        <v>-89.99999999999594</v>
       </c>
       <c r="S5">
-        <v>128.0401067740811</v>
+        <v>128.0334040082286</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -6033,22 +6033,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.6175484937536673</v>
+        <v>0.6174633092085503</v>
       </c>
       <c r="O6">
-        <v>0.9999999999908141</v>
+        <v>0.999999999990819</v>
       </c>
       <c r="P6">
-        <v>0.7469868767691259</v>
+        <v>0.7469563283726085</v>
       </c>
       <c r="Q6">
-        <v>41.80899274292713</v>
+        <v>41.81235472396285</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999653</v>
+        <v>-89.99999999999594</v>
       </c>
       <c r="S6">
-        <v>128.0401067740811</v>
+        <v>128.0334040082286</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -6134,7 +6134,7 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>3.019799330972708</v>
+        <v>3.020468259906335</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -6143,7 +6143,7 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>191.7830152299319</v>
+        <v>191.8254979229207</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -6152,43 +6152,43 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>1.476445250025198</v>
+        <v>1.473640706216259</v>
       </c>
       <c r="I2">
-        <v>14.90759653787019</v>
+        <v>14.8938162635404</v>
       </c>
       <c r="J2">
-        <v>1.504993722648785</v>
+        <v>1.504993722648776</v>
       </c>
       <c r="K2">
-        <v>15.04993697229389</v>
+        <v>15.04993697229388</v>
       </c>
       <c r="L2">
-        <v>1.50499372069543</v>
+        <v>1.504993720695428</v>
       </c>
       <c r="M2">
-        <v>15.04993697229304</v>
+        <v>15.04993697229305</v>
       </c>
       <c r="N2">
-        <v>0.6175484936549258</v>
+        <v>0.6174633091097874</v>
       </c>
       <c r="O2">
-        <v>0.9999999999908358</v>
+        <v>0.9999999999908331</v>
       </c>
       <c r="P2">
-        <v>0.7469868768512281</v>
+        <v>0.746956328454727</v>
       </c>
       <c r="Q2">
-        <v>41.80899273589832</v>
+        <v>41.81235471693206</v>
       </c>
       <c r="R2">
         <v>-89.99999999999652</v>
       </c>
       <c r="S2">
-        <v>128.0401067669047</v>
+        <v>128.0334040010512</v>
       </c>
       <c r="T2">
-        <v>3.019799330972708</v>
+        <v>3.020468259906334</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -6232,22 +6232,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.6175484937007081</v>
+        <v>0.6174633091555791</v>
       </c>
       <c r="O3">
-        <v>0.9999999999908141</v>
+        <v>0.999999999990819</v>
       </c>
       <c r="P3">
-        <v>0.7469868767735771</v>
+        <v>0.7469563283770679</v>
       </c>
       <c r="Q3">
-        <v>41.80899274283695</v>
+        <v>41.8123547238728</v>
       </c>
       <c r="R3">
-        <v>-89.99999999999652</v>
+        <v>-89.99999999999594</v>
       </c>
       <c r="S3">
-        <v>128.0401067700327</v>
+        <v>128.0334040041792</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -6294,22 +6294,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.6175484937404275</v>
+        <v>0.6174633091953077</v>
       </c>
       <c r="O4">
-        <v>0.9999999999908141</v>
+        <v>0.999999999990819</v>
       </c>
       <c r="P4">
-        <v>0.7469868767702388</v>
+        <v>0.7469563283737234</v>
       </c>
       <c r="Q4">
-        <v>41.80899274290458</v>
+        <v>41.81235472394033</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999653</v>
+        <v>-89.99999999999594</v>
       </c>
       <c r="S4">
-        <v>128.040106773069</v>
+        <v>128.0334040072163</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -6356,22 +6356,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.6175484937536673</v>
+        <v>0.6174633092085503</v>
       </c>
       <c r="O5">
-        <v>0.9999999999908141</v>
+        <v>0.999999999990819</v>
       </c>
       <c r="P5">
-        <v>0.7469868767691259</v>
+        <v>0.7469563283726084</v>
       </c>
       <c r="Q5">
-        <v>41.80899274292714</v>
+        <v>41.81235472396286</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999653</v>
+        <v>-89.99999999999594</v>
       </c>
       <c r="S5">
-        <v>128.0401067740811</v>
+        <v>128.0334040082286</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -6418,22 +6418,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.6175484937536673</v>
+        <v>0.6174633092085503</v>
       </c>
       <c r="O6">
-        <v>0.9999999999908141</v>
+        <v>0.999999999990819</v>
       </c>
       <c r="P6">
-        <v>0.7469868767691259</v>
+        <v>0.7469563283726085</v>
       </c>
       <c r="Q6">
-        <v>41.80899274292713</v>
+        <v>41.81235472396285</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999653</v>
+        <v>-89.99999999999594</v>
       </c>
       <c r="S6">
-        <v>128.0401067740811</v>
+        <v>128.0334040082286</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -6522,58 +6522,58 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>5.254784886328721</v>
+        <v>5.255384413710486</v>
       </c>
       <c r="D2">
-        <v>5.257332778285275</v>
+        <v>5.258184916533438</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>333.7236615521011</v>
+        <v>333.7617366545784</v>
       </c>
       <c r="G2">
-        <v>333.8854744238692</v>
+        <v>333.9395924710352</v>
       </c>
       <c r="H2">
-        <v>1.302220645038725</v>
+        <v>1.300057681313775</v>
       </c>
       <c r="I2">
-        <v>13.13357405514342</v>
+        <v>13.12286890427497</v>
       </c>
       <c r="J2">
-        <v>1.324394474185779</v>
+        <v>1.324394474185756</v>
       </c>
       <c r="K2">
-        <v>13.24394453578181</v>
+        <v>13.24394453578177</v>
       </c>
       <c r="L2">
-        <v>1.324394474104229</v>
+        <v>1.32439447410423</v>
       </c>
       <c r="M2">
         <v>13.24394453563989</v>
       </c>
       <c r="N2">
-        <v>0.6332935604015747</v>
+        <v>0.6331186911945819</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.633293560417666</v>
+        <v>0.6331186912106822</v>
       </c>
       <c r="Q2">
-        <v>0.01612637691918226</v>
+        <v>0.01773257155318517</v>
       </c>
       <c r="R2">
         <v>0</v>
       </c>
       <c r="S2">
-        <v>-179.9838736221539</v>
+        <v>-179.9822674275207</v>
       </c>
       <c r="T2">
-        <v>5.278256039442992</v>
+        <v>5.281146697085305</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -6617,22 +6617,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.6332935602904313</v>
+        <v>0.6331186910834264</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.6332935605328656</v>
+        <v>0.6331186913258547</v>
       </c>
       <c r="Q3">
-        <v>0.01612638320263523</v>
+        <v>0.01773257784168217</v>
       </c>
       <c r="R3">
         <v>0</v>
       </c>
       <c r="S3">
-        <v>-179.9838736165479</v>
+        <v>-179.9822674219075</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -6679,22 +6679,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.6332935602773794</v>
+        <v>0.6331186910703839</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.6332935605733425</v>
+        <v>0.6331186913663404</v>
       </c>
       <c r="Q4">
-        <v>0.01612638674326799</v>
+        <v>0.01773258138402431</v>
       </c>
       <c r="R4">
         <v>0</v>
       </c>
       <c r="S4">
-        <v>-179.983873617278</v>
+        <v>-179.9822674226372</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -6741,22 +6741,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.6332935602730285</v>
+        <v>0.6331186910660362</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.6332935605868348</v>
+        <v>0.6331186913798351</v>
       </c>
       <c r="Q5">
-        <v>0.0161263879234676</v>
+        <v>0.01773258256480347</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>-179.9838736175214</v>
+        <v>-179.9822674228804</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -6803,22 +6803,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.6332935602730285</v>
+        <v>0.6331186910660364</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.6332935605868348</v>
+        <v>0.6331186913798352</v>
       </c>
       <c r="Q6">
-        <v>0.01612638792346151</v>
+        <v>0.01773258256479618</v>
       </c>
       <c r="R6">
         <v>0</v>
       </c>
       <c r="S6">
-        <v>-179.9838736175214</v>
+        <v>-179.9822674228804</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -6907,58 +6907,58 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>5.254784886328721</v>
+        <v>5.255384413710486</v>
       </c>
       <c r="D2">
-        <v>5.257332778285275</v>
+        <v>5.258184916533438</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>333.7236615521011</v>
+        <v>333.7617366545784</v>
       </c>
       <c r="G2">
-        <v>333.8854744238692</v>
+        <v>333.9395924710352</v>
       </c>
       <c r="H2">
-        <v>1.302220645038725</v>
+        <v>1.300057681313775</v>
       </c>
       <c r="I2">
-        <v>13.13357405514342</v>
+        <v>13.12286890427497</v>
       </c>
       <c r="J2">
-        <v>1.324394474185779</v>
+        <v>1.324394474185756</v>
       </c>
       <c r="K2">
-        <v>13.24394453578181</v>
+        <v>13.24394453578177</v>
       </c>
       <c r="L2">
-        <v>1.324394474104229</v>
+        <v>1.32439447410423</v>
       </c>
       <c r="M2">
         <v>13.24394453563989</v>
       </c>
       <c r="N2">
-        <v>0.6332935604015747</v>
+        <v>0.6331186911945819</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.633293560417666</v>
+        <v>0.6331186912106822</v>
       </c>
       <c r="Q2">
-        <v>0.01612637691918226</v>
+        <v>0.01773257155318517</v>
       </c>
       <c r="R2">
         <v>0</v>
       </c>
       <c r="S2">
-        <v>-179.9838736221539</v>
+        <v>-179.9822674275207</v>
       </c>
       <c r="T2">
-        <v>5.278256039442992</v>
+        <v>5.281146697085305</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -7002,22 +7002,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.6332935602904313</v>
+        <v>0.6331186910834264</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.6332935605328656</v>
+        <v>0.6331186913258547</v>
       </c>
       <c r="Q3">
-        <v>0.01612638320263523</v>
+        <v>0.01773257784168217</v>
       </c>
       <c r="R3">
         <v>0</v>
       </c>
       <c r="S3">
-        <v>-179.9838736165479</v>
+        <v>-179.9822674219075</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -7064,22 +7064,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.6332935602773794</v>
+        <v>0.6331186910703839</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.6332935605733425</v>
+        <v>0.6331186913663404</v>
       </c>
       <c r="Q4">
-        <v>0.01612638674326799</v>
+        <v>0.01773258138402431</v>
       </c>
       <c r="R4">
         <v>0</v>
       </c>
       <c r="S4">
-        <v>-179.983873617278</v>
+        <v>-179.9822674226372</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -7126,22 +7126,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.6332935602730285</v>
+        <v>0.6331186910660362</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.6332935605868348</v>
+        <v>0.6331186913798351</v>
       </c>
       <c r="Q5">
-        <v>0.0161263879234676</v>
+        <v>0.01773258256480347</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>-179.9838736175214</v>
+        <v>-179.9822674228804</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -7188,22 +7188,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.6332935602730285</v>
+        <v>0.6331186910660364</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.6332935605868348</v>
+        <v>0.6331186913798352</v>
       </c>
       <c r="Q6">
-        <v>0.01612638792346151</v>
+        <v>0.01773258256479618</v>
       </c>
       <c r="R6">
         <v>0</v>
       </c>
       <c r="S6">
-        <v>-179.9838736175214</v>
+        <v>-179.9822674228804</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -7292,58 +7292,58 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>3.622289782670551</v>
+        <v>3.622711753526812</v>
       </c>
       <c r="D2">
-        <v>3.620634380647761</v>
+        <v>3.620895860118333</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>230.0462979218441</v>
+        <v>230.0730966704639</v>
       </c>
       <c r="G2">
-        <v>229.9411657734619</v>
+        <v>229.9577719501614</v>
       </c>
       <c r="H2">
-        <v>1.302220645038725</v>
+        <v>1.300057681313775</v>
       </c>
       <c r="I2">
-        <v>13.13357405514342</v>
+        <v>13.12286890427497</v>
       </c>
       <c r="J2">
-        <v>1.324394474185779</v>
+        <v>1.324394474185756</v>
       </c>
       <c r="K2">
-        <v>13.24394453578181</v>
+        <v>13.24394453578177</v>
       </c>
       <c r="L2">
-        <v>1.324394474104229</v>
+        <v>1.32439447410423</v>
       </c>
       <c r="M2">
         <v>13.24394453563989</v>
       </c>
       <c r="N2">
-        <v>0.8370081355091837</v>
+        <v>0.8369268144782571</v>
       </c>
       <c r="O2">
-        <v>0.4028253111899553</v>
+        <v>0.4028253111899616</v>
       </c>
       <c r="P2">
-        <v>0.6911934857615384</v>
+        <v>0.6911305050737214</v>
       </c>
       <c r="Q2">
-        <v>8.945076236609323</v>
+        <v>8.943870185869992</v>
       </c>
       <c r="R2">
-        <v>-115.8807585964508</v>
+        <v>-115.88075859645</v>
       </c>
       <c r="S2">
-        <v>160.3632685851118</v>
+        <v>160.3587607991908</v>
       </c>
       <c r="T2">
-        <v>3.631947299935616</v>
+        <v>3.633310139734862</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -7387,22 +7387,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.8370081354290032</v>
+        <v>0.8369268143980518</v>
       </c>
       <c r="O3">
-        <v>0.4028253110950953</v>
+        <v>0.4028253110950767</v>
       </c>
       <c r="P3">
-        <v>0.6911934858047968</v>
+        <v>0.6911305051169266</v>
       </c>
       <c r="Q3">
-        <v>8.945076239464418</v>
+        <v>8.943870188726097</v>
       </c>
       <c r="R3">
-        <v>-115.880758578808</v>
+        <v>-115.8807585788104</v>
       </c>
       <c r="S3">
-        <v>160.3632685916665</v>
+        <v>160.3587608057485</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -7449,22 +7449,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.8370081354178992</v>
+        <v>0.8369268143869497</v>
       </c>
       <c r="O4">
-        <v>0.4028253110969001</v>
+        <v>0.4028253110968812</v>
       </c>
       <c r="P4">
-        <v>0.6911934858311963</v>
+        <v>0.6911305051433256</v>
       </c>
       <c r="Q4">
-        <v>8.945076241256521</v>
+        <v>8.943870190518686</v>
       </c>
       <c r="R4">
-        <v>-115.8807585718153</v>
+        <v>-115.8807585718177</v>
       </c>
       <c r="S4">
-        <v>160.3632685925399</v>
+        <v>160.3587608066226</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -7511,22 +7511,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.8370081354141977</v>
+        <v>0.8369268143832492</v>
       </c>
       <c r="O5">
-        <v>0.4028253110975015</v>
+        <v>0.4028253110974828</v>
       </c>
       <c r="P5">
-        <v>0.6911934858399962</v>
+        <v>0.691130505152125</v>
       </c>
       <c r="Q5">
-        <v>8.945076241853888</v>
+        <v>8.943870191116217</v>
       </c>
       <c r="R5">
-        <v>-115.8807585694844</v>
+        <v>-115.8807585694868</v>
       </c>
       <c r="S5">
-        <v>160.363268592831</v>
+        <v>160.358760806914</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -7573,22 +7573,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.8370081354141978</v>
+        <v>0.8369268143832492</v>
       </c>
       <c r="O6">
-        <v>0.4028253110975015</v>
+        <v>0.4028253110974827</v>
       </c>
       <c r="P6">
-        <v>0.6911934858399961</v>
+        <v>0.691130505152125</v>
       </c>
       <c r="Q6">
-        <v>8.94507624185389</v>
+        <v>8.943870191116211</v>
       </c>
       <c r="R6">
-        <v>-115.8807585694844</v>
+        <v>-115.8807585694868</v>
       </c>
       <c r="S6">
-        <v>160.363268592831</v>
+        <v>160.358760806914</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -7677,58 +7677,58 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>3.622289782670551</v>
+        <v>3.622711753526812</v>
       </c>
       <c r="D2">
-        <v>3.620634380647761</v>
+        <v>3.620895860118333</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>230.0462979218441</v>
+        <v>230.0730966704639</v>
       </c>
       <c r="G2">
-        <v>229.9411657734619</v>
+        <v>229.9577719501614</v>
       </c>
       <c r="H2">
-        <v>1.302220645038725</v>
+        <v>1.300057681313775</v>
       </c>
       <c r="I2">
-        <v>13.13357405514342</v>
+        <v>13.12286890427497</v>
       </c>
       <c r="J2">
-        <v>1.324394474185779</v>
+        <v>1.324394474185756</v>
       </c>
       <c r="K2">
-        <v>13.24394453578181</v>
+        <v>13.24394453578177</v>
       </c>
       <c r="L2">
-        <v>1.324394474104229</v>
+        <v>1.32439447410423</v>
       </c>
       <c r="M2">
         <v>13.24394453563989</v>
       </c>
       <c r="N2">
-        <v>0.8370081355091837</v>
+        <v>0.8369268144782571</v>
       </c>
       <c r="O2">
-        <v>0.4028253111899553</v>
+        <v>0.4028253111899616</v>
       </c>
       <c r="P2">
-        <v>0.6911934857615384</v>
+        <v>0.6911305050737214</v>
       </c>
       <c r="Q2">
-        <v>8.945076236609323</v>
+        <v>8.943870185869992</v>
       </c>
       <c r="R2">
-        <v>-115.8807585964508</v>
+        <v>-115.88075859645</v>
       </c>
       <c r="S2">
-        <v>160.3632685851118</v>
+        <v>160.3587607991908</v>
       </c>
       <c r="T2">
-        <v>3.631947299935616</v>
+        <v>3.633310139734862</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -7772,22 +7772,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.8370081354290032</v>
+        <v>0.8369268143980518</v>
       </c>
       <c r="O3">
-        <v>0.4028253110950953</v>
+        <v>0.4028253110950767</v>
       </c>
       <c r="P3">
-        <v>0.6911934858047968</v>
+        <v>0.6911305051169266</v>
       </c>
       <c r="Q3">
-        <v>8.945076239464418</v>
+        <v>8.943870188726097</v>
       </c>
       <c r="R3">
-        <v>-115.880758578808</v>
+        <v>-115.8807585788104</v>
       </c>
       <c r="S3">
-        <v>160.3632685916665</v>
+        <v>160.3587608057485</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -7834,22 +7834,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.8370081354178992</v>
+        <v>0.8369268143869497</v>
       </c>
       <c r="O4">
-        <v>0.4028253110969001</v>
+        <v>0.4028253110968812</v>
       </c>
       <c r="P4">
-        <v>0.6911934858311963</v>
+        <v>0.6911305051433256</v>
       </c>
       <c r="Q4">
-        <v>8.945076241256521</v>
+        <v>8.943870190518686</v>
       </c>
       <c r="R4">
-        <v>-115.8807585718153</v>
+        <v>-115.8807585718177</v>
       </c>
       <c r="S4">
-        <v>160.3632685925399</v>
+        <v>160.3587608066226</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -7896,22 +7896,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.8370081354141977</v>
+        <v>0.8369268143832492</v>
       </c>
       <c r="O5">
-        <v>0.4028253110975015</v>
+        <v>0.4028253110974828</v>
       </c>
       <c r="P5">
-        <v>0.6911934858399962</v>
+        <v>0.691130505152125</v>
       </c>
       <c r="Q5">
-        <v>8.945076241853888</v>
+        <v>8.943870191116217</v>
       </c>
       <c r="R5">
-        <v>-115.8807585694844</v>
+        <v>-115.8807585694868</v>
       </c>
       <c r="S5">
-        <v>160.363268592831</v>
+        <v>160.358760806914</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -7958,22 +7958,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.8370081354141978</v>
+        <v>0.8369268143832492</v>
       </c>
       <c r="O6">
-        <v>0.4028253110975015</v>
+        <v>0.4028253110974827</v>
       </c>
       <c r="P6">
-        <v>0.6911934858399961</v>
+        <v>0.691130505152125</v>
       </c>
       <c r="Q6">
-        <v>8.94507624185389</v>
+        <v>8.943870191116211</v>
       </c>
       <c r="R6">
-        <v>-115.8807585694844</v>
+        <v>-115.8807585694868</v>
       </c>
       <c r="S6">
-        <v>160.363268592831</v>
+        <v>160.358760806914</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -8062,58 +8062,58 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>4.204500216346315</v>
+        <v>4.20504310551107</v>
       </c>
       <c r="D2">
-        <v>4.206808800909243</v>
+        <v>4.207584509483136</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>267.0216264886923</v>
+        <v>267.0561045812876</v>
       </c>
       <c r="G2">
-        <v>267.1682412997662</v>
+        <v>267.2175054107007</v>
       </c>
       <c r="H2">
-        <v>1.47644525002513</v>
+        <v>1.473640706216196</v>
       </c>
       <c r="I2">
-        <v>14.90759653787144</v>
+        <v>14.89381626354166</v>
       </c>
       <c r="J2">
-        <v>1.50499372124625</v>
+        <v>1.504993721246254</v>
       </c>
       <c r="K2">
-        <v>15.0499369732484</v>
+        <v>15.04993697324841</v>
       </c>
       <c r="L2">
         <v>1.504993720695295</v>
       </c>
       <c r="M2">
-        <v>15.04993697229335</v>
+        <v>15.04993697229334</v>
       </c>
       <c r="N2">
-        <v>0.575500340838435</v>
+        <v>0.5753199500460715</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.575500340817437</v>
+        <v>0.5753199500250595</v>
       </c>
       <c r="Q2">
-        <v>0.01827518544800331</v>
+        <v>0.02012769022969602</v>
       </c>
       <c r="R2">
         <v>0</v>
       </c>
       <c r="S2">
-        <v>-179.9817248150928</v>
+        <v>-179.9798723103112</v>
       </c>
       <c r="T2">
-        <v>4.225820514902766</v>
+        <v>4.22844465000347</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -8157,22 +8157,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.5755003407350534</v>
+        <v>0.5753199499427035</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.5755003409251284</v>
+        <v>0.5753199501327509</v>
       </c>
       <c r="Q3">
-        <v>0.01827519191564615</v>
+        <v>0.02012769670458139</v>
       </c>
       <c r="R3">
         <v>0</v>
       </c>
       <c r="S3">
-        <v>-179.9817248093503</v>
+        <v>-179.9798723045623</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -8219,22 +8219,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.5755003407346729</v>
+        <v>0.5753199499423403</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.575500340973396</v>
+        <v>0.5753199501810332</v>
       </c>
       <c r="Q4">
-        <v>0.01827519742221506</v>
+        <v>0.02012770221360049</v>
       </c>
       <c r="R4">
         <v>0</v>
       </c>
       <c r="S4">
-        <v>-179.9817248120457</v>
+        <v>-179.9798723072579</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -8281,22 +8281,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.5755003407345458</v>
+        <v>0.5753199499422191</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.5755003409894852</v>
+        <v>0.5753199501971274</v>
       </c>
       <c r="Q5">
-        <v>0.01827519925774779</v>
+        <v>0.02012770404993287</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>-179.9817248129441</v>
+        <v>-179.9798723081565</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -8343,22 +8343,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.5755003407345458</v>
+        <v>0.5753199499422191</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.5755003409894852</v>
+        <v>0.5753199501971274</v>
       </c>
       <c r="Q6">
-        <v>0.01827519925773618</v>
+        <v>0.02012770404994692</v>
       </c>
       <c r="R6">
         <v>0</v>
       </c>
       <c r="S6">
-        <v>-179.9817248129441</v>
+        <v>-179.9798723081565</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -8598,58 +8598,58 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>4.204500216346315</v>
+        <v>4.20504310551107</v>
       </c>
       <c r="D2">
-        <v>4.206808800909243</v>
+        <v>4.207584509483136</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>267.0216264886923</v>
+        <v>267.0561045812876</v>
       </c>
       <c r="G2">
-        <v>267.1682412997662</v>
+        <v>267.2175054107007</v>
       </c>
       <c r="H2">
-        <v>1.47644525002513</v>
+        <v>1.473640706216196</v>
       </c>
       <c r="I2">
-        <v>14.90759653787144</v>
+        <v>14.89381626354166</v>
       </c>
       <c r="J2">
-        <v>1.50499372124625</v>
+        <v>1.504993721246254</v>
       </c>
       <c r="K2">
-        <v>15.0499369732484</v>
+        <v>15.04993697324841</v>
       </c>
       <c r="L2">
         <v>1.504993720695295</v>
       </c>
       <c r="M2">
-        <v>15.04993697229335</v>
+        <v>15.04993697229334</v>
       </c>
       <c r="N2">
-        <v>0.575500340838435</v>
+        <v>0.5753199500460715</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.575500340817437</v>
+        <v>0.5753199500250595</v>
       </c>
       <c r="Q2">
-        <v>0.01827518544800331</v>
+        <v>0.02012769022969602</v>
       </c>
       <c r="R2">
         <v>0</v>
       </c>
       <c r="S2">
-        <v>-179.9817248150928</v>
+        <v>-179.9798723103112</v>
       </c>
       <c r="T2">
-        <v>4.225820514902766</v>
+        <v>4.22844465000347</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -8693,22 +8693,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.5755003407350534</v>
+        <v>0.5753199499427035</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.5755003409251284</v>
+        <v>0.5753199501327509</v>
       </c>
       <c r="Q3">
-        <v>0.01827519191564615</v>
+        <v>0.02012769670458139</v>
       </c>
       <c r="R3">
         <v>0</v>
       </c>
       <c r="S3">
-        <v>-179.9817248093503</v>
+        <v>-179.9798723045623</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -8755,22 +8755,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.5755003407346729</v>
+        <v>0.5753199499423403</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.575500340973396</v>
+        <v>0.5753199501810332</v>
       </c>
       <c r="Q4">
-        <v>0.01827519742221506</v>
+        <v>0.02012770221360049</v>
       </c>
       <c r="R4">
         <v>0</v>
       </c>
       <c r="S4">
-        <v>-179.9817248120457</v>
+        <v>-179.9798723072579</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -8817,22 +8817,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.5755003407345458</v>
+        <v>0.5753199499422191</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.5755003409894852</v>
+        <v>0.5753199501971274</v>
       </c>
       <c r="Q5">
-        <v>0.01827519925774779</v>
+        <v>0.02012770404993287</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>-179.9817248129441</v>
+        <v>-179.9798723081565</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -8879,22 +8879,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.5755003407345458</v>
+        <v>0.5753199499422191</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.5755003409894852</v>
+        <v>0.5753199501971274</v>
       </c>
       <c r="Q6">
-        <v>0.01827519925773618</v>
+        <v>0.02012770404994692</v>
       </c>
       <c r="R6">
         <v>0</v>
       </c>
       <c r="S6">
-        <v>-179.9817248129441</v>
+        <v>-179.9798723081565</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -8983,58 +8983,58 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>3.017067502804792</v>
+        <v>3.017471275978012</v>
       </c>
       <c r="D2">
-        <v>3.01567231710024</v>
+        <v>3.015943054580237</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>191.609520839838</v>
+        <v>191.6351638803656</v>
       </c>
       <c r="G2">
-        <v>191.5209146472079</v>
+        <v>191.538108786473</v>
       </c>
       <c r="H2">
-        <v>1.47644525002513</v>
+        <v>1.473640706216196</v>
       </c>
       <c r="I2">
-        <v>14.90759653787144</v>
+        <v>14.89381626354166</v>
       </c>
       <c r="J2">
-        <v>1.50499372124625</v>
+        <v>1.504993721246254</v>
       </c>
       <c r="K2">
-        <v>15.0499369732484</v>
+        <v>15.04993697324841</v>
       </c>
       <c r="L2">
         <v>1.504993720695295</v>
       </c>
       <c r="M2">
-        <v>15.04993697229335</v>
+        <v>15.04993697229334</v>
       </c>
       <c r="N2">
-        <v>0.7463613276688934</v>
+        <v>0.7462699307555101</v>
       </c>
       <c r="O2">
-        <v>0.3354590831689805</v>
+        <v>0.3354590831689825</v>
       </c>
       <c r="P2">
-        <v>0.6176655355599789</v>
+        <v>0.6175913295079212</v>
       </c>
       <c r="Q2">
-        <v>8.09538963285217</v>
+        <v>8.0940631551984</v>
       </c>
       <c r="R2">
-        <v>-117.0248837768022</v>
+        <v>-117.0248837768029</v>
       </c>
       <c r="S2">
-        <v>161.7211055113619</v>
+        <v>161.7159027609255</v>
       </c>
       <c r="T2">
-        <v>3.026716857525112</v>
+        <v>3.028061108046235</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -9078,22 +9078,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.7463613275914787</v>
+        <v>0.7462699306780923</v>
       </c>
       <c r="O3">
         <v>0.3354590830770995</v>
       </c>
       <c r="P3">
-        <v>0.6176655356054884</v>
+        <v>0.6175913295533998</v>
       </c>
       <c r="Q3">
-        <v>8.095389635999535</v>
+        <v>8.094063158347808</v>
       </c>
       <c r="R3">
-        <v>-117.0248837562194</v>
+        <v>-117.0248837562221</v>
       </c>
       <c r="S3">
-        <v>161.7211055183033</v>
+        <v>161.7159027678703</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -9140,22 +9140,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.7463613275882653</v>
+        <v>0.7462699306748848</v>
       </c>
       <c r="O4">
-        <v>0.3354590831007258</v>
+        <v>0.3354590831007256</v>
       </c>
       <c r="P4">
-        <v>0.617665535645151</v>
+        <v>0.6175913295930656</v>
       </c>
       <c r="Q4">
-        <v>8.095389639036435</v>
+        <v>8.094063161385526</v>
       </c>
       <c r="R4">
-        <v>-117.0248837452102</v>
+        <v>-117.0248837452129</v>
       </c>
       <c r="S4">
-        <v>161.7211055183833</v>
+        <v>161.7159027679514</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -9202,22 +9202,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.7463613275871943</v>
+        <v>0.7462699306738152</v>
       </c>
       <c r="O5">
-        <v>0.3354590831086011</v>
+        <v>0.335459083108601</v>
       </c>
       <c r="P5">
-        <v>0.6176655356583719</v>
+        <v>0.6175913296062877</v>
       </c>
       <c r="Q5">
-        <v>8.095389640048735</v>
+        <v>8.094063162398099</v>
       </c>
       <c r="R5">
-        <v>-117.0248837415405</v>
+        <v>-117.0248837415432</v>
       </c>
       <c r="S5">
-        <v>161.72110551841</v>
+        <v>161.7159027679784</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -9264,22 +9264,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.7463613275871943</v>
+        <v>0.7462699306738153</v>
       </c>
       <c r="O6">
-        <v>0.3354590831086012</v>
+        <v>0.335459083108601</v>
       </c>
       <c r="P6">
-        <v>0.6176655356583721</v>
+        <v>0.6175913296062877</v>
       </c>
       <c r="Q6">
-        <v>8.09538964004874</v>
+        <v>8.094063162398102</v>
       </c>
       <c r="R6">
-        <v>-117.0248837415405</v>
+        <v>-117.0248837415432</v>
       </c>
       <c r="S6">
-        <v>161.72110551841</v>
+        <v>161.7159027679784</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -9368,58 +9368,58 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>3.017067502804792</v>
+        <v>3.017471275978012</v>
       </c>
       <c r="D2">
-        <v>3.01567231710024</v>
+        <v>3.015943054580237</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>191.609520839838</v>
+        <v>191.6351638803656</v>
       </c>
       <c r="G2">
-        <v>191.5209146472079</v>
+        <v>191.538108786473</v>
       </c>
       <c r="H2">
-        <v>1.47644525002513</v>
+        <v>1.473640706216196</v>
       </c>
       <c r="I2">
-        <v>14.90759653787144</v>
+        <v>14.89381626354166</v>
       </c>
       <c r="J2">
-        <v>1.50499372124625</v>
+        <v>1.504993721246254</v>
       </c>
       <c r="K2">
-        <v>15.0499369732484</v>
+        <v>15.04993697324841</v>
       </c>
       <c r="L2">
         <v>1.504993720695295</v>
       </c>
       <c r="M2">
-        <v>15.04993697229335</v>
+        <v>15.04993697229334</v>
       </c>
       <c r="N2">
-        <v>0.7463613276688934</v>
+        <v>0.7462699307555101</v>
       </c>
       <c r="O2">
-        <v>0.3354590831689805</v>
+        <v>0.3354590831689825</v>
       </c>
       <c r="P2">
-        <v>0.6176655355599789</v>
+        <v>0.6175913295079212</v>
       </c>
       <c r="Q2">
-        <v>8.09538963285217</v>
+        <v>8.0940631551984</v>
       </c>
       <c r="R2">
-        <v>-117.0248837768022</v>
+        <v>-117.0248837768029</v>
       </c>
       <c r="S2">
-        <v>161.7211055113619</v>
+        <v>161.7159027609255</v>
       </c>
       <c r="T2">
-        <v>3.026716857525112</v>
+        <v>3.028061108046235</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -9463,22 +9463,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.7463613275914787</v>
+        <v>0.7462699306780923</v>
       </c>
       <c r="O3">
         <v>0.3354590830770995</v>
       </c>
       <c r="P3">
-        <v>0.6176655356054884</v>
+        <v>0.6175913295533998</v>
       </c>
       <c r="Q3">
-        <v>8.095389635999535</v>
+        <v>8.094063158347808</v>
       </c>
       <c r="R3">
-        <v>-117.0248837562194</v>
+        <v>-117.0248837562221</v>
       </c>
       <c r="S3">
-        <v>161.7211055183033</v>
+        <v>161.7159027678703</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -9525,22 +9525,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.7463613275882653</v>
+        <v>0.7462699306748848</v>
       </c>
       <c r="O4">
-        <v>0.3354590831007258</v>
+        <v>0.3354590831007256</v>
       </c>
       <c r="P4">
-        <v>0.617665535645151</v>
+        <v>0.6175913295930656</v>
       </c>
       <c r="Q4">
-        <v>8.095389639036435</v>
+        <v>8.094063161385526</v>
       </c>
       <c r="R4">
-        <v>-117.0248837452102</v>
+        <v>-117.0248837452129</v>
       </c>
       <c r="S4">
-        <v>161.7211055183833</v>
+        <v>161.7159027679514</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -9587,22 +9587,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.7463613275871943</v>
+        <v>0.7462699306738152</v>
       </c>
       <c r="O5">
-        <v>0.3354590831086011</v>
+        <v>0.335459083108601</v>
       </c>
       <c r="P5">
-        <v>0.6176655356583719</v>
+        <v>0.6175913296062877</v>
       </c>
       <c r="Q5">
-        <v>8.095389640048735</v>
+        <v>8.094063162398099</v>
       </c>
       <c r="R5">
-        <v>-117.0248837415405</v>
+        <v>-117.0248837415432</v>
       </c>
       <c r="S5">
-        <v>161.72110551841</v>
+        <v>161.7159027679784</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -9649,22 +9649,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.7463613275871943</v>
+        <v>0.7462699306738153</v>
       </c>
       <c r="O6">
-        <v>0.3354590831086012</v>
+        <v>0.335459083108601</v>
       </c>
       <c r="P6">
-        <v>0.6176655356583721</v>
+        <v>0.6175913296062877</v>
       </c>
       <c r="Q6">
-        <v>8.09538964004874</v>
+        <v>8.094063162398102</v>
       </c>
       <c r="R6">
-        <v>-117.0248837415405</v>
+        <v>-117.0248837415432</v>
       </c>
       <c r="S6">
-        <v>161.72110551841</v>
+        <v>161.7159027679784</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -10505,10 +10505,10 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>4.54545480310641</v>
+        <v>4.545454803106411</v>
       </c>
       <c r="D2">
-        <v>4.54545480310641</v>
+        <v>4.545454803106411</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -10520,25 +10520,25 @@
         <v>288.675150957904</v>
       </c>
       <c r="H2">
-        <v>1.302220645038725</v>
+        <v>1.300057681313775</v>
       </c>
       <c r="I2">
-        <v>13.13357405514342</v>
+        <v>13.12286890427497</v>
       </c>
       <c r="J2">
-        <v>1.324394474185779</v>
+        <v>1.324394474185756</v>
       </c>
       <c r="K2">
-        <v>13.24394453578181</v>
+        <v>13.24394453578177</v>
       </c>
       <c r="L2">
-        <v>1.324394474104229</v>
+        <v>1.32439447410423</v>
       </c>
       <c r="M2">
         <v>13.24394453563989</v>
       </c>
       <c r="N2">
-        <v>0.9526279647803686</v>
+        <v>0.9526279647803685</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -10547,7 +10547,7 @@
         <v>0.9526279647833883</v>
       </c>
       <c r="Q2">
-        <v>-8.692298255403023E-11</v>
+        <v>-8.693547290884792E-11</v>
       </c>
       <c r="R2">
         <v>0</v>
@@ -10597,16 +10597,16 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.952627964667196</v>
+        <v>0.9526279646671957</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.9526279648965607</v>
+        <v>0.9526279648965608</v>
       </c>
       <c r="Q3">
-        <v>1.45830137539804E-10</v>
+        <v>1.457736343491934E-10</v>
       </c>
       <c r="R3">
         <v>0</v>
@@ -10656,16 +10656,16 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.9526279646404249</v>
+        <v>0.9526279646404242</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.9526279649233319</v>
+        <v>0.952627964923332</v>
       </c>
       <c r="Q4">
-        <v>1.564957417103715E-09</v>
+        <v>1.564904727956292E-09</v>
       </c>
       <c r="R4">
         <v>0</v>
@@ -10715,22 +10715,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.952627964631501</v>
+        <v>0.9526279646315007</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.9526279649322557</v>
+        <v>0.9526279649322559</v>
       </c>
       <c r="Q5">
-        <v>2.037993580520877E-09</v>
+        <v>2.037945568028168E-09</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>179.9999999979534</v>
+        <v>179.9999999979535</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -10774,22 +10774,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9526279646315009</v>
+        <v>0.9526279646315007</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.9526279649322557</v>
+        <v>0.9526279649322559</v>
       </c>
       <c r="Q6">
-        <v>2.037985802051262E-09</v>
+        <v>2.037938665368102E-09</v>
       </c>
       <c r="R6">
         <v>0</v>
       </c>
       <c r="S6">
-        <v>179.9999999979534</v>
+        <v>179.9999999979535</v>
       </c>
     </row>
   </sheetData>
